--- a/biology/Botanique/Trollius/Trollius.xlsx
+++ b/biology/Botanique/Trollius/Trollius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trollius est un genre de plantes herbacées de la famille des Ranunculaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (3 avril 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (3 avril 2019) :
 Trollius albiflorus (A. Gray) Rydb.
 Trollius altaicus C. A. Mey.
 Trollius altissimus Crantz
@@ -539,7 +553,7 @@
 Trollius vaginatus Hand.-Mazz.
 Trollius yunnanensis (Franchet) Ulbrich
 cultivar Trollius 'Goldquelle'
-Selon BioLib                    (3 avril 2019)[2] :
+Selon BioLib                    (3 avril 2019) :
 Trollius albiflorus (A. Gray) Rydb.
 Trollius altaicus C. A. Mey.
 Trollius altissimus Crantz
@@ -564,7 +578,7 @@
 Trollius taihasenzanensis Masamune
 Trollius vaginatus Hand.-Mazz.
 Trollius yunnanensis (Franchet) Ulbrich
-Selon Catalogue of Life                                   (3 avril 2019)[3] :
+Selon Catalogue of Life                                   (3 avril 2019) :
 Trollius acaulis Lindl.
 Trollius afghanicus Hedge &amp; Wendelbo
 Trollius akiyamae Toyokuni
@@ -609,7 +623,7 @@
 Trollius vicarius Siplivinskii
 Trollius vitalii N. V. Stepanov
 Trollius yunnanensis (Franch.) Ulbr.
-Selon GRIN            (3 avril 2019)[4] :
+Selon GRIN            (3 avril 2019) :
 Trollius acaulis Lindl.
 Trollius albiflorus (A. Gray) Rydb.
 Trollius altaicus C. A. Mey.
@@ -622,12 +636,12 @@
 Trollius ranunculinus (Sm.) Stearn
 Trollius yunnanensis (Franch.) Ulbr.
 Trollius spp.
-Selon ITIS      (3 avril 2019)[5] :
+Selon ITIS      (3 avril 2019) :
 Trollius albiflorus (A. Gray) Rydb.
 Trollius europaeus L.
 Trollius laxus Salisb.
 Trollius riederianus Fisch. &amp; C.A. Mey.
-Selon NCBI  (3 avril 2019)[6] :
+Selon NCBI  (3 avril 2019) :
 Trollius acaulis Lindl.
 Trollius albiflorus (A.Gray) Rydb., 1900
 Trollius altaicus C.A.Mey.
@@ -652,7 +666,7 @@
 Trollius sibiricus Schipcz.
 Trollius vaginatus Hand.-Mazz.
 Trollius yunnanensis (Franch.) Ulbr.
-Selon The Plant List            (3 avril 2019)[7] :
+Selon The Plant List            (3 avril 2019) :
 Trollius acaulis Lindl.
 Trollius albiflorus (A. Gray) Rydb.
 Trollius altaicus C.A. Mey.
@@ -682,7 +696,7 @@
 Trollius taihasenzanensis Masam.
 Trollius vaginatus Hand.-Mazz.
 Trollius yunnanensis (Franch.) Ulbr.
-Selon Tropicos                                           (3 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Trollius acaulis Lindl.
 Trollius afghanicus Hedge &amp; Wendelbo
 Trollius albiflorus (A. Gray) Rydb.
